--- a/data/data_configuration.xlsx
+++ b/data/data_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micha/Git/POC-Terberg-DamageControl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C27232-09A4-854B-9E56-4E6852AA945B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C5305-47F0-DD41-A3EA-3D61F374463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="500" windowWidth="23980" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>ColumnName</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>vId</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ofDamage</t>
+  </si>
+  <si>
+    <t>hasImages</t>
   </si>
 </sst>
 </file>
@@ -611,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -948,37 +963,103 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>

--- a/data/data_configuration.xlsx
+++ b/data/data_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micha/Git/POC-Terberg-DamageControl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C5305-47F0-DD41-A3EA-3D61F374463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA56176-C606-9642-A64D-9310F2844B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="500" windowWidth="23980" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>ColumnName</t>
   </si>
@@ -73,9 +73,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>config</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>hasImages</t>
+  </si>
+  <si>
+    <t>text2vec-contextionary</t>
+  </si>
+  <si>
+    <t>img2vec-neural</t>
   </si>
 </sst>
 </file>
@@ -627,13 +630,14 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -670,16 +674,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="b">
         <f>TRUE()</f>
@@ -703,16 +707,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="b">
         <f>TRUE()</f>
@@ -736,16 +740,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="b">
         <f>TRUE()</f>
@@ -769,16 +773,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="b">
         <f>TRUE()</f>
@@ -802,16 +806,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="b">
         <f>TRUE()</f>
@@ -835,16 +839,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="b">
         <f>TRUE()</f>
@@ -868,16 +872,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="4" t="b">
         <f>TRUE()</f>
@@ -901,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="b">
         <f>TRUE()</f>
@@ -934,16 +938,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="b">
         <f>TRUE()</f>
@@ -967,16 +971,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F11" s="4" t="b">
         <f>TRUE()</f>
@@ -1000,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="b">
         <f>TRUE()</f>
@@ -1033,16 +1037,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="b">
         <f>TRUE()</f>
